--- a/Meal_admin/data/employees_db.xlsx
+++ b/Meal_admin/data/employees_db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>복지행정팀</t>
   </si>
@@ -121,6 +121,35 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,239 +584,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="str">
+        <f>B2&amp;"_"&amp;COUNTIF($B$1:B2,B2)</f>
+        <v>admin_1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="str">
+        <f>B3&amp;"_"&amp;COUNTIF($B$1:B3,B3)</f>
+        <v>admin_2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="str">
+        <f>B4&amp;"_"&amp;COUNTIF($B$1:B4,B4)</f>
+        <v>admin_3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="3" t="str">
+        <f>B5&amp;"_"&amp;COUNTIF($B$1:B5,B5)</f>
+        <v>admin_4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="str">
+        <f>B6&amp;"_"&amp;COUNTIF($B$1:B6,B6)</f>
+        <v>admin_5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="str">
+        <f>B7&amp;"_"&amp;COUNTIF($B$1:B7,B7)</f>
+        <v>admin_6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="str">
+        <f>B8&amp;"_"&amp;COUNTIF($B$1:B8,B8)</f>
+        <v>admin_7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="str">
+        <f>B9&amp;"_"&amp;COUNTIF($B$1:B9,B9)</f>
+        <v>admin_8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="str">
+        <f>B10&amp;"_"&amp;COUNTIF($B$1:B10,B10)</f>
+        <v>admin_9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="str">
+        <f>B11&amp;"_"&amp;COUNTIF($B$1:B11,B11)</f>
+        <v>admin_10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="str">
+        <f>B12&amp;"_"&amp;COUNTIF($B$1:B12,B12)</f>
+        <v>admin_11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="str">
+        <f>B13&amp;"_"&amp;COUNTIF($B$1:B13,B13)</f>
+        <v>admin_12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="str">
+        <f>B14&amp;"_"&amp;COUNTIF($B$1:B14,B14)</f>
+        <v>admin_13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="str">
+        <f>B15&amp;"_"&amp;COUNTIF($B$1:B15,B15)</f>
+        <v>support_1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="str">
+        <f>B16&amp;"_"&amp;COUNTIF($B$1:B16,B16)</f>
+        <v>support_2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="str">
+        <f>B17&amp;"_"&amp;COUNTIF($B$1:B17,B17)</f>
+        <v>support_3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="str">
+        <f>B18&amp;"_"&amp;COUNTIF($B$1:B18,B18)</f>
+        <v>support_4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="str">
+        <f>B19&amp;"_"&amp;COUNTIF($B$1:B19,B19)</f>
+        <v>support_5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="str">
+        <f>B20&amp;"_"&amp;COUNTIF($B$1:B20,B20)</f>
+        <v>support_6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D21" s="6" t="str">
+        <f>B21&amp;"_"&amp;COUNTIF($B$1:B21,B21)</f>
+        <v>support_7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22" s="5" t="str">
+        <f>B22&amp;"_"&amp;COUNTIF($B$1:B22,B22)</f>
+        <v>service_1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="str">
+        <f>B23&amp;"_"&amp;COUNTIF($B$1:B23,B23)</f>
+        <v>service_2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="str">
+        <f>B24&amp;"_"&amp;COUNTIF($B$1:B24,B24)</f>
+        <v>service_3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="str">
+        <f>B25&amp;"_"&amp;COUNTIF($B$1:B25,B25)</f>
+        <v>service_4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="str">
+        <f>B26&amp;"_"&amp;COUNTIF($B$1:B26,B26)</f>
+        <v>service_5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="str">
+        <f>B27&amp;"_"&amp;COUNTIF($B$1:B27,B27)</f>
+        <v>service_6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="D28" s="6" t="str">
+        <f>B28&amp;"_"&amp;COUNTIF($B$1:B28,B28)</f>
+        <v>service_7</v>
       </c>
     </row>
   </sheetData>
